--- a/public/file/template-excel-payroll/template-import-payroll.xlsx
+++ b/public/file/template-excel-payroll/template-import-payroll.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBB55B3-766D-4378-9107-748D904BBA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE0EFC7-0DE7-442C-A1B8-F50AF15C0496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1C1D3C4D-2C0A-417F-9E29-D32469390088}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>NO</t>
   </si>
@@ -67,13 +67,31 @@
   </si>
   <si>
     <t>END DATE</t>
+  </si>
+  <si>
+    <t>210317144</t>
+  </si>
+  <si>
+    <t>211015193</t>
+  </si>
+  <si>
+    <t>NAMA</t>
+  </si>
+  <si>
+    <t>PAJRI</t>
+  </si>
+  <si>
+    <t>SADAM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,6 +105,25 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212529"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -127,10 +164,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -138,11 +181,27 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="S7" xfId="1" xr:uid="{7644585B-037A-4346-9869-E2B3D174D478}"/>
+    <cellStyle name="S8" xfId="2" xr:uid="{B0B859C3-7666-AF41-8A92-A27898B0E72A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -454,29 +513,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A74985-BA75-4F29-9578-1CA84A0303AC}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="7" width="18.140625" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -484,73 +545,277 @@
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1750001</v>
+      </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="G2" s="7">
+        <v>1750001</v>
+      </c>
+      <c r="H2" s="7">
+        <v>1150000</v>
+      </c>
+      <c r="I2" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J2" s="3">
+        <v>25000</v>
+      </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="M2" s="3">
+        <f>G2-(H2+I2+J2+K2+L2)</f>
+        <v>570001</v>
+      </c>
+      <c r="N2" s="4">
+        <v>45190</v>
+      </c>
+      <c r="O2" s="4">
+        <v>45219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1825000</v>
+      </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="G3" s="7">
+        <v>1825000</v>
+      </c>
+      <c r="H3" s="7">
+        <v>200000</v>
+      </c>
+      <c r="I3" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J3" s="3">
+        <v>25000</v>
+      </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
+      <c r="M3" s="3">
+        <f t="shared" ref="M3:M12" si="0">G3-(H3+I3+J3+K3+L3)</f>
+        <v>1595000</v>
+      </c>
+      <c r="N3" s="4">
+        <v>45190</v>
+      </c>
+      <c r="O3" s="4">
+        <v>45219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/file/template-excel-payroll/template-import-payroll.xlsx
+++ b/public/file/template-excel-payroll/template-import-payroll.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\payroll\public\file\template-excel-payroll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE0EFC7-0DE7-442C-A1B8-F50AF15C0496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2965F4-DB83-4DEC-BC99-2CCDD11A8014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1C1D3C4D-2C0A-417F-9E29-D32469390088}"/>
+    <workbookView xWindow="3375" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{1C1D3C4D-2C0A-417F-9E29-D32469390088}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -196,7 +196,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,7 +516,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,7 +654,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3">
-        <f t="shared" ref="M3:M12" si="0">G3-(H3+I3+J3+K3+L3)</f>
+        <f t="shared" ref="M3" si="0">G3-(H3+I3+J3+K3+L3)</f>
         <v>1595000</v>
       </c>
       <c r="N3" s="4">

--- a/public/file/template-excel-payroll/template-import-payroll.xlsx
+++ b/public/file/template-excel-payroll/template-import-payroll.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\payroll\public\file\template-excel-payroll\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2965F4-DB83-4DEC-BC99-2CCDD11A8014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A195B0-5BDB-4619-A556-50F3107C88C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{1C1D3C4D-2C0A-417F-9E29-D32469390088}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1C1D3C4D-2C0A-417F-9E29-D32469390088}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>NO</t>
   </si>
@@ -72,16 +72,13 @@
     <t>210317144</t>
   </si>
   <si>
-    <t>211015193</t>
-  </si>
-  <si>
     <t>NAMA</t>
   </si>
   <si>
-    <t>PAJRI</t>
-  </si>
-  <si>
-    <t>SADAM</t>
+    <t>ABSENSI</t>
+  </si>
+  <si>
+    <t>EXAMPLE</t>
   </si>
 </sst>
 </file>
@@ -513,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A74985-BA75-4F29-9578-1CA84A0303AC}">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,13 +528,13 @@
     <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" customWidth="1"/>
+    <col min="12" max="13" width="12.140625" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -545,7 +542,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -575,16 +572,19 @@
         <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -613,58 +613,37 @@
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="3">
+      <c r="M2" s="3"/>
+      <c r="N2" s="3">
         <f>G2-(H2+I2+J2+K2+L2)</f>
         <v>570001</v>
       </c>
-      <c r="N2" s="4">
+      <c r="O2" s="4">
         <v>45190</v>
       </c>
-      <c r="O2" s="4">
+      <c r="P2" s="4">
         <v>45219</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="7">
-        <v>1825000</v>
-      </c>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="7"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="7">
-        <v>1825000</v>
-      </c>
-      <c r="H3" s="7">
-        <v>200000</v>
-      </c>
-      <c r="I3" s="3">
-        <v>5000</v>
-      </c>
-      <c r="J3" s="3">
-        <v>25000</v>
-      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="3">
-        <f t="shared" ref="M3" si="0">G3-(H3+I3+J3+K3+L3)</f>
-        <v>1595000</v>
-      </c>
-      <c r="N3" s="4">
-        <v>45190</v>
-      </c>
-      <c r="O3" s="4">
-        <v>45219</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -678,10 +657,11 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
-      <c r="N4" s="4"/>
+      <c r="N4" s="3"/>
       <c r="O4" s="4"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4" s="4"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -695,10 +675,11 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
-      <c r="N5" s="4"/>
+      <c r="N5" s="3"/>
       <c r="O5" s="4"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P5" s="4"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -712,10 +693,11 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="4"/>
+      <c r="N6" s="3"/>
       <c r="O6" s="4"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P6" s="4"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -729,10 +711,11 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
-      <c r="N7" s="4"/>
+      <c r="N7" s="3"/>
       <c r="O7" s="4"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P7" s="4"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -746,10 +729,11 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
-      <c r="N8" s="4"/>
+      <c r="N8" s="3"/>
       <c r="O8" s="4"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P8" s="4"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -763,10 +747,11 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
-      <c r="N9" s="4"/>
+      <c r="N9" s="3"/>
       <c r="O9" s="4"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P9" s="4"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -780,10 +765,11 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
-      <c r="N10" s="4"/>
+      <c r="N10" s="3"/>
       <c r="O10" s="4"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P10" s="4"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -797,10 +783,11 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-      <c r="N11" s="4"/>
+      <c r="N11" s="3"/>
       <c r="O11" s="4"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P11" s="4"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -814,8 +801,9 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
-      <c r="N12" s="4"/>
+      <c r="N12" s="3"/>
       <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/file/template-excel-payroll/template-import-payroll.xlsx
+++ b/public/file/template-excel-payroll/template-import-payroll.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\payroll\public\file\template-excel-payroll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A195B0-5BDB-4619-A556-50F3107C88C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA217688-4C90-408A-8979-12E98615973D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1C1D3C4D-2C0A-417F-9E29-D32469390088}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>NO</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>EXAMPLE</t>
+  </si>
+  <si>
+    <t>BRANCH CODE</t>
+  </si>
+  <si>
+    <t>EXP</t>
   </si>
 </sst>
 </file>
@@ -170,7 +176,7 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -194,6 +200,7 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A74985-BA75-4F29-9578-1CA84A0303AC}">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,9 +539,10 @@
     <col min="12" max="13" width="12.140625" customWidth="1"/>
     <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -583,8 +591,11 @@
       <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -624,8 +635,11 @@
       <c r="P2" s="4">
         <v>45219</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="5"/>
       <c r="C3" s="8"/>
@@ -642,8 +656,9 @@
       <c r="N3" s="3"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q3" s="9"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -660,8 +675,9 @@
       <c r="N4" s="3"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q4" s="9"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -678,8 +694,9 @@
       <c r="N5" s="3"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q5" s="9"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -696,8 +713,9 @@
       <c r="N6" s="3"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q6" s="9"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -714,8 +732,9 @@
       <c r="N7" s="3"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q7" s="9"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -732,8 +751,9 @@
       <c r="N8" s="3"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q8" s="9"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -750,8 +770,9 @@
       <c r="N9" s="3"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q9" s="9"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -768,8 +789,9 @@
       <c r="N10" s="3"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q10" s="9"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -786,8 +808,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q11" s="9"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -804,6 +827,7 @@
       <c r="N12" s="3"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
+      <c r="Q12" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/file/template-excel-payroll/template-import-payroll.xlsx
+++ b/public/file/template-excel-payroll/template-import-payroll.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\payroll\public\file\template-excel-payroll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA217688-4C90-408A-8979-12E98615973D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD17A97-342B-4981-A8E4-0DE282D48927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1C1D3C4D-2C0A-417F-9E29-D32469390088}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>NO</t>
   </si>
@@ -36,9 +36,6 @@
     <t>ADMIN</t>
   </si>
   <si>
-    <t>BPJS</t>
-  </si>
-  <si>
     <t>SALARY  BRUTTO</t>
   </si>
   <si>
@@ -85,6 +82,12 @@
   </si>
   <si>
     <t>EXP</t>
+  </si>
+  <si>
+    <t>BPJS KETENAGAKERJAAN</t>
+  </si>
+  <si>
+    <t>BPJS KESEHATAN</t>
   </si>
 </sst>
 </file>
@@ -517,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A74985-BA75-4F29-9578-1CA84A0303AC}">
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,35 +537,36 @@
     <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" customWidth="1"/>
-    <col min="12" max="13" width="12.140625" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" customWidth="1"/>
+    <col min="11" max="11" width="21.5703125" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" customWidth="1"/>
+    <col min="13" max="14" width="12.140625" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -571,39 +575,42 @@
         <v>2</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="7">
         <v>1750001</v>
@@ -619,27 +626,26 @@
       <c r="I2" s="3">
         <v>5000</v>
       </c>
-      <c r="J2" s="3">
-        <v>25000</v>
-      </c>
+      <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-      <c r="N2" s="3">
-        <f>G2-(H2+I2+J2+K2+L2)</f>
-        <v>570001</v>
-      </c>
-      <c r="O2" s="4">
+      <c r="N2" s="3"/>
+      <c r="O2" s="3">
+        <f>G2-(H2+I2+K2+L2+M2)</f>
+        <v>595001</v>
+      </c>
+      <c r="P2" s="4">
         <v>45190</v>
       </c>
-      <c r="P2" s="4">
+      <c r="Q2" s="4">
         <v>45219</v>
       </c>
-      <c r="Q2" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R2" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="5"/>
       <c r="C3" s="8"/>
@@ -654,11 +660,12 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
-      <c r="O3" s="4"/>
+      <c r="O3" s="3"/>
       <c r="P3" s="4"/>
-      <c r="Q3" s="9"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q3" s="4"/>
+      <c r="R3" s="9"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -673,11 +680,12 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
-      <c r="O4" s="4"/>
+      <c r="O4" s="3"/>
       <c r="P4" s="4"/>
-      <c r="Q4" s="9"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q4" s="4"/>
+      <c r="R4" s="9"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -692,11 +700,12 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
-      <c r="O5" s="4"/>
+      <c r="O5" s="3"/>
       <c r="P5" s="4"/>
-      <c r="Q5" s="9"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q5" s="4"/>
+      <c r="R5" s="9"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -711,11 +720,12 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
-      <c r="O6" s="4"/>
+      <c r="O6" s="3"/>
       <c r="P6" s="4"/>
-      <c r="Q6" s="9"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q6" s="4"/>
+      <c r="R6" s="9"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -730,11 +740,12 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
-      <c r="O7" s="4"/>
+      <c r="O7" s="3"/>
       <c r="P7" s="4"/>
-      <c r="Q7" s="9"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q7" s="4"/>
+      <c r="R7" s="9"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -749,11 +760,12 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
-      <c r="O8" s="4"/>
+      <c r="O8" s="3"/>
       <c r="P8" s="4"/>
-      <c r="Q8" s="9"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q8" s="4"/>
+      <c r="R8" s="9"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -768,11 +780,12 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
-      <c r="O9" s="4"/>
+      <c r="O9" s="3"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="9"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q9" s="4"/>
+      <c r="R9" s="9"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -787,11 +800,12 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
-      <c r="O10" s="4"/>
+      <c r="O10" s="3"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="9"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q10" s="4"/>
+      <c r="R10" s="9"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -806,11 +820,12 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-      <c r="O11" s="4"/>
+      <c r="O11" s="3"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="9"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q11" s="4"/>
+      <c r="R11" s="9"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -825,9 +840,10 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
-      <c r="O12" s="4"/>
+      <c r="O12" s="3"/>
       <c r="P12" s="4"/>
-      <c r="Q12" s="9"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/file/template-excel-payroll/template-import-payroll.xlsx
+++ b/public/file/template-excel-payroll/template-import-payroll.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\payroll\public\file\template-excel-payroll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD17A97-342B-4981-A8E4-0DE282D48927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E585A05-E3FD-449B-952D-A2AF2721AF4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1C1D3C4D-2C0A-417F-9E29-D32469390088}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>NO</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>BPJS KESEHATAN</t>
+  </si>
+  <si>
+    <t>POTONGAN LAIN-LAIN</t>
+  </si>
+  <si>
+    <t>INSENTIF</t>
   </si>
 </sst>
 </file>
@@ -520,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A74985-BA75-4F29-9578-1CA84A0303AC}">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,21 +538,23 @@
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" customWidth="1"/>
-    <col min="11" max="11" width="21.5703125" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" customWidth="1"/>
-    <col min="13" max="14" width="12.140625" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" customWidth="1"/>
+    <col min="12" max="12" width="21.5703125" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" customWidth="1"/>
+    <col min="14" max="15" width="12.140625" customWidth="1"/>
+    <col min="16" max="16" width="21.28515625" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -563,46 +571,52 @@
         <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -617,233 +631,255 @@
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="7">
+      <c r="G2" s="3"/>
+      <c r="H2" s="7">
         <v>1750001</v>
       </c>
-      <c r="H2" s="7">
+      <c r="I2" s="7">
         <v>1150000</v>
       </c>
-      <c r="I2" s="3">
+      <c r="J2" s="3">
         <v>5000</v>
       </c>
-      <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
-      <c r="O2" s="3">
-        <f>G2-(H2+I2+K2+L2+M2)</f>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3">
+        <f>H2-(I2+J2+L2+M2+N2)</f>
         <v>595001</v>
       </c>
-      <c r="P2" s="4">
+      <c r="R2" s="4">
         <v>45190</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="S2" s="4">
         <v>45219</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="T2" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="5"/>
       <c r="C3" s="8"/>
       <c r="D3" s="7"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="7"/>
+      <c r="G3" s="3"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="3"/>
+      <c r="I3" s="7"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="9"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="9"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="7"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="7"/>
+      <c r="G4" s="3"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="3"/>
+      <c r="I4" s="7"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="9"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="9"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="7"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="7"/>
+      <c r="G5" s="3"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="3"/>
+      <c r="I5" s="7"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="9"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="9"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="7"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="7"/>
+      <c r="G6" s="3"/>
       <c r="H6" s="7"/>
-      <c r="I6" s="3"/>
+      <c r="I6" s="7"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="9"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="9"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="7"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="7"/>
+      <c r="G7" s="3"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="3"/>
+      <c r="I7" s="7"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="9"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="9"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="7"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="7"/>
+      <c r="G8" s="3"/>
       <c r="H8" s="7"/>
-      <c r="I8" s="3"/>
+      <c r="I8" s="7"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="9"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="9"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="7"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="6"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="9"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="9"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="7"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="6"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="9"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="9"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="7"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="6"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="9"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="9"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="7"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="6"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="9"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
